--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Singida_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Singida_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="460" windowWidth="16260" windowHeight="15460" tabRatio="500" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="-19020" yWindow="-1020" windowWidth="16260" windowHeight="15460" tabRatio="500" firstSheet="19" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2919,12 +2914,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2940,7 +2935,7 @@
         <v>315714.88374625047</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>74897.772519145656</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2956,7 +2951,7 @@
         <v>88063.787818045021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2964,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2984,6 +2979,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2995,12 +2995,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3606,6 +3606,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3617,13 +3622,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3659,7 +3664,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3683,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3716,7 +3721,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3735,7 +3740,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +3759,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3773,7 +3778,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3792,113 +3797,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3910,9 +3920,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3926,7 +3936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3942,6 +3952,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3951,12 +3966,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3976,7 +3991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -4016,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -4036,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -4058,6 +4073,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4069,9 +4089,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4091,7 +4111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4113,6 +4133,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4124,9 +4149,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4140,7 +4165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4156,6 +4181,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4167,12 +4197,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4192,7 +4222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4212,7 +4242,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4220,7 +4250,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4228,7 +4258,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4239,6 +4269,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4248,12 +4283,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4273,7 +4308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4293,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4313,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4333,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4355,6 +4390,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4364,13 +4404,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4390,7 +4430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4412,6 +4452,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4421,12 +4466,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4443,7 +4488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4460,14 +4505,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4476,6 +4521,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4487,13 +4537,13 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4501,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4509,7 +4559,7 @@
         <v>76345.074999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4517,7 +4567,7 @@
         <v>77792.375</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4525,7 +4575,7 @@
         <v>79601.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4533,7 +4583,7 @@
         <v>81048.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4541,7 +4591,7 @@
         <v>82496.100000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4549,7 +4599,7 @@
         <v>84305.225000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4557,7 +4607,7 @@
         <v>86114.349999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4565,7 +4615,7 @@
         <v>87561.65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4573,7 +4623,7 @@
         <v>89732.599999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4581,7 +4631,7 @@
         <v>91541.724999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4589,7 +4639,7 @@
         <v>93350.849999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4597,7 +4647,7 @@
         <v>95159.974999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4605,7 +4655,7 @@
         <v>97330.925000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4615,6 +4665,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4622,11 +4677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4634,7 +4689,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4648,7 +4703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4665,7 +4720,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4682,7 +4737,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4696,7 +4751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4713,7 +4768,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4730,12 +4785,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
+      <c r="B7" s="32">
+        <v>0.33442822142748735</v>
       </c>
       <c r="C7" s="36">
         <v>0.95</v>
@@ -4747,72 +4802,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4820,6 +4875,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4827,9 +4887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4839,7 +4899,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4864,7 +4924,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4887,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4912,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4936,7 +4996,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4959,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4982,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -5005,65 +5065,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5071,6 +5131,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5082,12 +5147,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5107,7 +5172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5127,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5146,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5166,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5183,14 +5248,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5200,6 +5265,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5211,12 +5281,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5239,7 +5309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5262,7 +5332,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5282,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5305,7 +5375,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5329,6 +5399,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5340,12 +5415,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5368,7 +5443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5391,7 +5466,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5411,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5437,7 +5512,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5461,6 +5536,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5472,12 +5552,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5500,7 +5580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5523,7 +5603,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5543,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5569,7 +5649,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5593,6 +5673,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5604,9 +5689,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5617,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>29</v>
       </c>
@@ -5632,6 +5717,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5643,12 +5733,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5668,7 +5758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5688,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5708,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5728,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5748,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5768,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5788,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5808,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5828,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5848,7 +5938,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5868,7 +5958,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5888,7 +5978,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5908,7 +5998,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5928,7 +6018,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5948,7 +6038,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5968,7 +6058,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5988,7 +6078,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6015,6 +6105,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6026,9 +6121,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -6051,7 +6146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6079,7 +6174,7 @@
         <v>28.378975157472663</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6104,7 +6199,7 @@
         <v>38.202303912294774</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6124,7 +6219,7 @@
         <v>27.794191015702648</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6144,7 +6239,7 @@
         <v>5.6245299145299139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6167,7 +6262,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6187,7 +6282,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6207,7 +6302,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6227,7 +6322,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6250,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6270,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6290,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6318,6 +6413,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6329,9 +6429,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6342,7 +6442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>1.5618604651162792E-2</v>
       </c>
@@ -6355,6 +6455,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6366,9 +6471,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6388,7 +6493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6408,7 +6513,7 @@
         <v>1.6435805084745763</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6432,6 +6537,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6441,9 +6551,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6466,7 +6576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6489,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6509,7 +6619,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6529,7 +6639,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6549,7 +6659,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6572,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6592,7 +6702,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6612,7 +6722,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6632,7 +6742,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6655,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6675,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6695,7 +6805,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6715,7 +6825,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6738,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6758,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6778,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6798,7 +6908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6821,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6841,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6861,7 +6971,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6883,6 +6993,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6892,9 +7007,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6917,7 +7032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6940,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6960,7 +7075,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6980,7 +7095,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -7000,7 +7115,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -7023,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -7043,7 +7158,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7063,7 +7178,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7083,7 +7198,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7106,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7126,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7146,7 +7261,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7166,7 +7281,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7189,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7209,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7229,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7249,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7272,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7292,7 +7407,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7312,7 +7427,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7334,5 +7449,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>